--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R8b7fecab0b784054"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R580cd16bc86d4797"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R580cd16bc86d4797"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R490c0898d8544bad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R490c0898d8544bad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rdc5a234a975b4bb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rdc5a234a975b4bb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rd88959303f2c4664"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rd88959303f2c4664"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rbc42a32848444837"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rbc42a32848444837"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R1cf6523928b94e55"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R1cf6523928b94e55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra97d81989e714c37"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra97d81989e714c37"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R6abc4e37194340ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R6abc4e37194340ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R793a13d9c5f14764"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R793a13d9c5f14764"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R49a24e22b4a5411b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R49a24e22b4a5411b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R769820666b5f4ef0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R769820666b5f4ef0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfce22761b0304322"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfce22761b0304322"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R971031fdf4354127"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R971031fdf4354127"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R133ae38d13e04275"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R133ae38d13e04275"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfcf66b04324d4629"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfcf66b04324d4629"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R1e18e2bc9be34598"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R1e18e2bc9be34598"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfa57c7b7d5a84dcb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rfa57c7b7d5a84dcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rd5afe054c4624b85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rd5afe054c4624b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R32938f3eae674938"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R32938f3eae674938"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rffe15c48d40645ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rffe15c48d40645ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Raad31856e3564a84"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/55_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Raad31856e3564a84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rba9414827a1d48f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
